--- a/Testdata/TC_126.xlsx
+++ b/Testdata/TC_126.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrUP5C5JKbpgtAEvkkqUFAWRiqy8FMvdkTjVcofdmZXEtwRJESOtgQJNHLRNWrRA0aJAkwBNgyZu4f8SmLL71L/QM5e9kZTNdQzB2jm3OXPmzDnfjNCbtxPfuMYhIzTYK1UrVsnAgUs9ElzulSJ+Ua6+UXrTRvu3LvaPndCZYA7CBmgFbPeWkb3SmPPprmne3NxUbuoVGl6aNcuqmg963YE7xhOnTALGncDFpUTLe7VWyUYtb9LD3PEc7ijNvVJn0Km0MHHbQOs5gXOJw0ozYiTAjO0HnHCCmdAMscNxq917Sy3MrlXeqFSRuURPJZsR8T0ll5NUdC0H0+IhmWC7ZlW3y9ZO2aoPra3d6ubuRq1S37LejhUTQdR1GB/g8Jq4kjDgzmQq1a0dq25tVTc3ashcKQS20gDYqO97J/iaMOy1sO+zQhEx9QY2XA6rLhZMC5kZXW3o9V04DJ3peEi4j4u5cXLaNEaB9iU1YqMDGmIX4vdaLh3hm36owzqcdoE7HJOQz9rOrLCtU4bD/lQEqZiqjdo04A0fh/x0CnuNPUgFYNg8jDAy72GmSm3CXPgmQYQ9+8LxWVYpx0RnNLxiU8fFR3COTWHjJvCp40HCccI4cdNJlxjoOKRTsAiTN6nvHYBVLbyCkVjuBBBiMW2T0qvUu1VMJHdV7i/s6cThsfgSHQ3G9KYf+LNBNGJuSEbYazdj6ZU8JA6k1m5FjNMJeJGSkKJlKL2eOYN/cAYXOaiNXTJx/GMf4sjsOhjKEVAj4vSC8Bb1o0nAYrcWqOgMFjXEt8kikzHqw/4GIu406ASxvIr0SlZe4YTeJHMuM2QcMuQGc+MdX2YsCreBFu/gMkduiljlAfGhRWS3I0PNJ8ZgjDFfmRWKg0Q1PBBNx27OjqLJCE7YCI7ZtZyVITPlI0hVSHfwy7agkZTlz9CyduUP+JGw0X7g3S8XMxFMl5nLrgJvgYRgTX7Td4IroJ4RPj5qxGtZwUEqAvfKL/MQHN6p78wkOYlSloY6getHHlY1oRNcyBQVvqlNvZeNlkhdOOY2coLZcDaF0szILoePvRI0613GQ4ADJdulUcDDmSgeyNSir9Jh0SiQEzj+2joXIf5ZBChkdhAFbot668/mqeicBoSv7yGNQlUR11eR0RPFMWJtLMqMrPtr67tF1sTCQuKTAE9oQNz1ow1BFt57r7EQFp+qtTWwOl9ry/vQ2lXnE2d9bbUQICT0ukLTNBijLpHJqo+Hl9E37zkybXzhRD7ANw5d9jKpvYtk1GBXizJZEjoN/bgC2gIcM0DHrjepuIAfBAKsuHQiCCaA0rMBMrPyAgS5eD+47DrBZQQwI6kri/Sk/ooWOQydgInlJKhioRSvFkJxnVJox1bFqx/JRFDFiwIXmQtyaIgnUxo6fg8CQw502mnIBGik5/CxHkFv87EbB9lMVROtvGex468Sk01KLUMceF0mF4hSSKxF4fBUJqUhscoeHEu/5fhkFKqqGrfyVTzYsBQfxvVXLK4gVoz3AO5i0H1/jGcCoKcDTZcpW40ZKoFFIbUHJxvbtY2dbVCSYyRX3AKfqE8kvjQOKVwHgwnoGYCMMSDHXWPG4Sio4OgGVEAvq4EO4toup+9BiuYIeT5AjEsCnWNJLmGk8nYPgOfYn2Uk1eq61AXB+a8ezr/5+u6jp/NvP7376Ov5z//8v3//dv7NV/OHn7344B/Pnnyo1qeE0dAZ+Vg6NGxub1v1DUithIREPE0JiL3I5ZJ2fi5xcDJG+jonB639Tuuw25QlJCHG6qqLmOKmOKNROhyoRciJ5C6a8eYrEXsYlyQ9znEzXckWN7drnJfO8u9TVLF4/uQvz5/8/V5tHbAUXlV3durroC+4A2+Urdo96KubK/taeLNcq2WEF2TQiar5SZw6nl2vWjvV7S2rmpRvL8ngVUKLLG1p6FyaC3qK1FKIKEmB7DhmyrwfYsYTtjoJmYEK4t0/f/Hii49zUjq6mpK3As5J5CImM+OBNH10MjQG/dOT1r4x3B+IPEl5GTll/CXCevbkPGWTZvm05VJqFVWZe6ni4oyHIY2mS5Uipa6QXFkzlrkLmjI2y66lvBXyetc+fbhKQa+knQLS5AkjS0M5jiJl+Lp2PXr32bdPnz19//l/Prl7/MX80Z/m/3ovZ0fPltzvIXXhgGSHSSZDFdNdY4GCzgYyplfWTzJdQhPFdeiYkoAzu7a5Ia9CeohAtyrMyd+oM4HOJS3LsAF9gYJ+5LD9W64Pq32EzDwBHJ060DRpeoVMCKoup+H972e/v/vdV3ePv3zxwd/mH/51/svHz5/84cXnf1Qn6e7jL+8efa4r92Jxl76Ii6nCcoZ86XANccIM0YKN7975tRFQbgByMCJZZb575zcZY8JRiTFSy4DMEkfyLiyJZpWFnpFxJfEhp5eoqD7eEm2pnkjoxkSnxE0nebssTAG8NCTjB51hOWLYoACKfggryQunyuvqaRXVJo+3rFq1prnKG7GEkcMyoT/06cjxjZgh3xEWRHJaL1dIZeV8h91+s9FNRZQT/dDDoUhD9YFiZCjaRIfFozjVMhTgAn5zI188/SyJLbMSy5lyZuo3lIuGJx7UV7845CRQKwpDhXIC/So/iKaAaePHtvv58gEyA2OPFOTMAtt03Gnn+TDOcKG55dmCIPmyQmmWqlYdJp5rFCo9EqFJh8DLPVpCOPTDu0JP1wS2xBSFZz8Mabiy+qScWKwHgBgqiplGPJGRe6rAs5fuVUyIK17yoS5weoW0jX3Mi71Km6l2D9Dv6+rC3hdV7bC+7+lgFrtBJGFJDWSf5kWifN+XeZVsjTAEsCTe8Qo/pcf3zxO4thb0Ri1FKoqLHMyu37oPSMj4A1EJ9JeinCeUc4U6H4h7k/qQ43O7vqkIIGBmrZs5N+Ojy9UfSKjfJRNS8HZnxec7bwRiOZ0qWNYplimitRzhWwCNGQtQFEc/hbahnkOKWFMJC7U00RdPkIxcjnlRx7ZGDvbwyCq7I1wrb3jWdnkH43q5WoX/HbdWs6xN8YCpjUPlIPim4CRmvGHpHy7t/wOMPYzC8RwAAA==</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7nY7ycRRpVe+JVjYSRQ7ZLIvqN1djou0u01XdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0lc7M+4wijRd51anTp0656syeud25paucUCJ7+2Xa1W9XMKe7TvEu9wvh2xSqe2U3zFR99bG7okVWDPMQLgEWh7du6VkvzxlbL6naTc3N9WbetUPLjVD12va40F/aE/xzKoQjzLLs3E51nLerlU2UduZDTCzHItZUnO/3Bv2qm1M7A7QBpZnXeKg2gop8TClXY8RRjDlmgG2GG53Bt+TCzON6k61hrQVeiLZConrSLmMpKQrOZgWj8gMm4Zu6BV9t2Loo1p9T2/AX3XnUf3dSDEWRH2LsiEOroktCENmzeZCXd819Fpdb+gNpK0VAltJAEx07Dqn+JpQ7LSx69JCEdHUBjZtBqsuFkwdaSldZejhLhwG1nw6IszFRdUP/ADbEKgHzX2Eb44DFb/RvA/c0ZQEbNGxFoVtnVEcHM95NIqpmqjje6zp4oCdzWFTsQN7DgyTBSFG2j3MRKlDqA3fxAuxY04sl6aVMkx07gdXdG7Z+AgOrMZt3HiubzmQWYxQRuxk0hUGOgn8OViEyVu+6xyAVSW8hhFb7nkQYj5ty/evEu/WMZHIAZENsKczi0XiK3Q0nPo3x567GIZjagdkjJ1OK5Jey0P85CntdkiZPwMvEhKStBRlMNAW8A8OW56DOtgmM8s9cSGO1KyDoQwBNUPmTwhr+24482jkVo6KzmFRI3wbLzIeo2PYX4/H3fd6XiQvI72WlVU49W/iOVcZIg4pcpPa0Y6vMvLCHaBFO7jKEZvCV3lAXOgF6e1IUbOJMZxizNZmheQgXvYOeHcxW4ujcDaGEzaGY3YtZqVIS/gIUhXSHfwydegYFfE30vU98Qd+xGzU9Zz75SImgulSc5k14OVICNbktlzLuwLqOWHTo2a0ljUcJCNwr/wqD8HhnbvWQpDjKKVpqOfZbuhgWRN63kSkKPdNbuq9bLRC6sMxN5HlLUaLOdRgSvYYfOyXoSvvURZA3y+bth96LFjw4oE0Jfo2HRqOPTGB5W6sMwnwD0OAG4uD0LPbvrP5bI6MzplH2OYe+mEgK+LmKiJ6vDiGtIN5mRF1f2N9u8iaaFBIfObhme8Re/NoQ5C5984DFkKjU7WxBpbna2N5F1q77Hz8rG+sFgBWhF5XaJompb5NRLKq4+Gk9LV7jkwHT6zQBZzGoMtexrU3T0ZNepWXSZPQWeBGFdDkKJgCDLadWdUG/MChXtX2Z5ygAfo8HyItLc9BkI273mXf8i5DgBlxXcnT4/rLW+QosDzKlxOjilwpXi+Eojol0Y4pi9dxKBJBFi8fuEjLyaERns39wHIHEBhyoNJOQSZAIwOLTdUIepuL7SjIWqIaa2U9ixx/m5hoUnIZ/MCrMpkjCiG+Fgm4E5mEhvgqB3As3bblknEgq2rUytfxYMMSfBjVX764glgx2gO4dEH3/S5ecCSeDBRdpGwtYsgE5oXUHJ5u7RpbjV1QEmMkVtwGn3yXCHxZOvTh3ufNQK8EyBgDctwrLRgcBRkc1YAK6KU10EFU28X0A0jRDCHLB4hxSaBzrMjFjETeHADwnLqLlKRcXd+3QXD5iyfLr768+/DF8uuP7z78cvnTP/33X79ZfvXF8sknr9//+8vnH8j1SWE0ssYuFg6NWru7en0LUismIR5PTQBiJ7SZoF1cCBwcj5G6t4lBu9trH/ZbooTExEhddhGNXwkXfpgMh3IRYiKxi1q0+VLEHEUlSY0z3FRXMvkV7RpnpdP8+xRlLF49//Or53+7V1sFLIFXtUajvgn6gmvuVkU37kFf/UzZV8LbFcNICedk0Kms+XGceo5Zr+mN2u4jvRaXbyfO4HVCeZayNLIutZyeJLUlIopTID2OmCLvR5iymC1PQmogg3j3j5+9/uyjjJSKrqJkrYBzArnwybRoIEwfnY5Kw+Oz03a3NOoOeZ4kvJScNP4GYTV7fJ7SSbN62jIptY4qzb1RMT/jYeCH85VKkVDXSK6tGavcnKaIzaprCW+NvNq1j5+sU1Ar6SSA1Dw9a5XGXpxkgoYyHElK8VXtevqjl1+/ePniJ6/+/au7Z58tn/5x+c8fZ+yo2eL7PaQuHJD0MM5kqGKqa+Qo6HwoYnqlfz/VJRSRX4dOfOIxahrbW+IqpIYIdGvcnPgf9WbQuYRlETag5yjoOxbt3jJ1WM0jpGUJ4OjcgqbpJ1fImCDrchLe/3zyu7vffnH37PPX7/91+cFflj9/9ur5719/+gd5ku4++vzu6aeqcueLu/CFX0wlliuJlw67xE9Yibfg0jfv/bLk+awEyKEUiirzzXu/ThnjjgqMkVgGZBY7knVhRTStzPVKKVdiHzJ6sYrs423eluqxhGpM/pzYySTvVrgpgJclwfhWb1QJKS75AIq+DSvJCifKm+opFdkmTx7pRs1QXOkNX8LYoqnQH7r+2HJLEUO8I+REMlpvVkhkxXyH/eNWs5+ISCeOAwcHPA3lB+rRCBtG6ZWiABcwmx26/LlnRWyVhaKvVAnT1LvJpOnw1/L1rwwZCdQOg0AiG089uQ/DOeDY6IHtfr54dExB1yMJM9NgNhn3Olk+jFNcaGhZNicIvqhKiiUrVI/yJxqJRI94aJIh8DIPlRAO9aouEdM1gW3QeLHpBoEfrK04CScSGwAIhiqiJRGPZTQ+pQTMTrJXESGqcvGHvLSpFfod7GJW+Mk50h4A4n2oLux9UdUePXYdFcxit4Y4LImB9Ls7T5SizjSDAKAQf6Ur/FDeJ95Vr9jqzUbDHo8twzFqj4yJpY/HW7ZtbO+M8dh+tLMFdUca5ZdIboLfQvgVrNgkAACz6sl1+RQu0AWtyQALRX6lhEiJA6kKezxGBySg7DEvUepLUi5iyoWEw4+5f/JDjC/M+rYkgICWnkzLeB3VFyZ/ovHdPpmRgtdOPSpCWSOQBvO5xItFNxR63hG+BTSbsgDVevwD6GfynaaINXmqoMjH+pGtYTgubE6LlE+AzxPrYdpdB4DZw7XFDx7E/T8cEMjroSZ6HiWXU1Z0Xw24/uEdbFSMiW1XtmBQgW48rjjWpFHT9Und2Tb4w7QyDt2B4JuCk/CeQmhoucX1tNwv1ub/AM3yoR/qHgAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CFEDB0-68DF-434A-BDFF-A7C465CDA063}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_126.xlsx
+++ b/Testdata/TC_126.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7nY7ycRRpVe+JVjYSRQ7ZLIvqN1djou0u01XdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0lc7M+4wijRd51anTp0656syeud25paucUCJ7+2Xa1W9XMKe7TvEu9wvh2xSqe2U3zFR99bG7okVWDPMQLgEWh7du6VkvzxlbL6naTc3N9WbetUPLjVD12va40F/aE/xzKoQjzLLs3E51nLerlU2UduZDTCzHItZUnO/3Bv2qm1M7A7QBpZnXeKg2gop8TClXY8RRjDlmgG2GG53Bt+TCzON6k61hrQVeiLZConrSLmMpKQrOZgWj8gMm4Zu6BV9t2Loo1p9T2/AX3XnUf3dSDEWRH2LsiEOroktCENmzeZCXd819Fpdb+gNpK0VAltJAEx07Dqn+JpQ7LSx69JCEdHUBjZtBqsuFkwdaSldZejhLhwG1nw6IszFRdUP/ADbEKgHzX2Eb44DFb/RvA/c0ZQEbNGxFoVtnVEcHM95NIqpmqjje6zp4oCdzWFTsQN7DgyTBSFG2j3MRKlDqA3fxAuxY04sl6aVMkx07gdXdG7Z+AgOrMZt3HiubzmQWYxQRuxk0hUGOgn8OViEyVu+6xyAVSW8hhFb7nkQYj5ty/evEu/WMZHIAZENsKczi0XiK3Q0nPo3x567GIZjagdkjJ1OK5Jey0P85CntdkiZPwMvEhKStBRlMNAW8A8OW56DOtgmM8s9cSGO1KyDoQwBNUPmTwhr+24482jkVo6KzmFRI3wbLzIeo2PYX4/H3fd6XiQvI72WlVU49W/iOVcZIg4pcpPa0Y6vMvLCHaBFO7jKEZvCV3lAXOgF6e1IUbOJMZxizNZmheQgXvYOeHcxW4ujcDaGEzaGY3YtZqVIS/gIUhXSHfwydegYFfE30vU98Qd+xGzU9Zz75SImgulSc5k14OVICNbktlzLuwLqOWHTo2a0ljUcJCNwr/wqD8HhnbvWQpDjKKVpqOfZbuhgWRN63kSkKPdNbuq9bLRC6sMxN5HlLUaLOdRgSvYYfOyXoSvvURZA3y+bth96LFjw4oE0Jfo2HRqOPTGB5W6sMwnwD0OAG4uD0LPbvrP5bI6MzplH2OYe+mEgK+LmKiJ6vDiGtIN5mRF1f2N9u8iaaFBIfObhme8Re/NoQ5C5984DFkKjU7WxBpbna2N5F1q77Hz8rG+sFgBWhF5XaJompb5NRLKq4+Gk9LV7jkwHT6zQBZzGoMtexrU3T0ZNepWXSZPQWeBGFdDkKJgCDLadWdUG/MChXtX2Z5ygAfo8HyItLc9BkI273mXf8i5DgBlxXcnT4/rLW+QosDzKlxOjilwpXi+Eojol0Y4pi9dxKBJBFi8fuEjLyaERns39wHIHEBhyoNJOQSZAIwOLTdUIepuL7SjIWqIaa2U9ixx/m5hoUnIZ/MCrMpkjCiG+Fgm4E5mEhvgqB3As3bblknEgq2rUytfxYMMSfBjVX764glgx2gO4dEH3/S5ecCSeDBRdpGwtYsgE5oXUHJ5u7RpbjV1QEmMkVtwGn3yXCHxZOvTh3ufNQK8EyBgDctwrLRgcBRkc1YAK6KU10EFU28X0A0jRDCHLB4hxSaBzrMjFjETeHADwnLqLlKRcXd+3QXD5iyfLr768+/DF8uuP7z78cvnTP/33X79ZfvXF8sknr9//+8vnH8j1SWE0ssYuFg6NWru7en0LUismIR5PTQBiJ7SZoF1cCBwcj5G6t4lBu9trH/ZbooTExEhddhGNXwkXfpgMh3IRYiKxi1q0+VLEHEUlSY0z3FRXMvkV7RpnpdP8+xRlLF49//Or53+7V1sFLIFXtUajvgn6gmvuVkU37kFf/UzZV8LbFcNICedk0Kms+XGceo5Zr+mN2u4jvRaXbyfO4HVCeZayNLIutZyeJLUlIopTID2OmCLvR5iymC1PQmogg3j3j5+9/uyjjJSKrqJkrYBzArnwybRoIEwfnY5Kw+Oz03a3NOoOeZ4kvJScNP4GYTV7fJ7SSbN62jIptY4qzb1RMT/jYeCH85VKkVDXSK6tGavcnKaIzaprCW+NvNq1j5+sU1Ar6SSA1Dw9a5XGXpxkgoYyHElK8VXtevqjl1+/ePniJ6/+/au7Z58tn/5x+c8fZ+yo2eL7PaQuHJD0MM5kqGKqa+Qo6HwoYnqlfz/VJRSRX4dOfOIxahrbW+IqpIYIdGvcnPgf9WbQuYRlETag5yjoOxbt3jJ1WM0jpGUJ4OjcgqbpJ1fImCDrchLe/3zyu7vffnH37PPX7/91+cFflj9/9ur5719/+gd5ku4++vzu6aeqcueLu/CFX0wlliuJlw67xE9Yibfg0jfv/bLk+awEyKEUiirzzXu/ThnjjgqMkVgGZBY7knVhRTStzPVKKVdiHzJ6sYrs423eluqxhGpM/pzYySTvVrgpgJclwfhWb1QJKS75AIq+DSvJCifKm+opFdkmTx7pRs1QXOkNX8LYoqnQH7r+2HJLEUO8I+REMlpvVkhkxXyH/eNWs5+ISCeOAwcHPA3lB+rRCBtG6ZWiABcwmx26/LlnRWyVhaKvVAnT1LvJpOnw1/L1rwwZCdQOg0AiG089uQ/DOeDY6IHtfr54dExB1yMJM9NgNhn3Olk+jFNcaGhZNicIvqhKiiUrVI/yJxqJRI94aJIh8DIPlRAO9aouEdM1gW3QeLHpBoEfrK04CScSGwAIhiqiJRGPZTQ+pQTMTrJXESGqcvGHvLSpFfod7GJW+Mk50h4A4n2oLux9UdUePXYdFcxit4Y4LImB9Ls7T5SizjSDAKAQf6Ur/FDeJ95Vr9jqzUbDHo8twzFqj4yJpY/HW7ZtbO+M8dh+tLMFdUca5ZdIboLfQvgVrNgkAACz6sl1+RQu0AWtyQALRX6lhEiJA6kKezxGBySg7DEvUepLUi5iyoWEw4+5f/JDjC/M+rYkgICWnkzLeB3VFyZ/ovHdPpmRgtdOPSpCWSOQBvO5xItFNxR63hG+BTSbsgDVevwD6GfynaaINXmqoMjH+pGtYTgubE6LlE+AzxPrYdpdB4DZw7XFDx7E/T8cEMjroSZ6HiWXU1Z0Xw24/uEdbFSMiW1XtmBQgW48rjjWpFHT9Und2Tb4w7QyDt2B4JuCk/CeQmhoucX1tNwv1ub/AM3yoR/qHgAA</t>
+          <t>8RwAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrUP5C5JKbpgtAEvkkqUFAWRiqy8FMvdkTjVcofdmZXEtwRJESOtgQJNHLRNWrRA0aJAkwBNgyZu4f8SmLL71L/QM5e9kZTNdQzB2jm3OXPmzDnfjNCbtxPfuMYhIzTYK1UrVsnAgUs9ElzulSJ+Ua6+UXrTRvu3LvaPndCZYA7CBmgFbPeWkb3SmPPprmne3NxUbuoVGl6aNcuqmg963YE7xhOnTALGncDFpUTLe7VWyUYtb9LD3PEc7ijNvVJn0Km0MHHbQOs5gXOJw0ozYiTAjO0HnHCCmdAMscNxq917Sy3MrlXeqFSRuURPJZsR8T0ll5NUdC0H0+IhmWC7ZlW3y9ZO2aoPra3d6ubuRq1S37LejhUTQdR1GB/g8Jq4kjDgzmQq1a0dq25tVTc3ashcKQS20gDYqO97J/iaMOy1sO+zQhEx9QY2XA6rLhZMC5kZXW3o9V04DJ3peEi4j4u5cXLaNEaB9iU1YqMDGmIX4vdaLh3hm36owzqcdoE7HJOQz9rOrLCtU4bD/lQEqZiqjdo04A0fh/x0CnuNPUgFYNg8jDAy72GmSm3CXPgmQYQ9+8LxWVYpx0RnNLxiU8fFR3COTWHjJvCp40HCccI4cdNJlxjoOKRTsAiTN6nvHYBVLbyCkVjuBBBiMW2T0qvUu1VMJHdV7i/s6cThsfgSHQ3G9KYf+LNBNGJuSEbYazdj6ZU8JA6k1m5FjNMJeJGSkKJlKL2eOYN/cAYXOaiNXTJx/GMf4sjsOhjKEVAj4vSC8Bb1o0nAYrcWqOgMFjXEt8kikzHqw/4GIu406ASxvIr0SlZe4YTeJHMuM2QcMuQGc+MdX2YsCreBFu/gMkduiljlAfGhRWS3I0PNJ8ZgjDFfmRWKg0Q1PBBNx27OjqLJCE7YCI7ZtZyVITPlI0hVSHfwy7agkZTlz9CyduUP+JGw0X7g3S8XMxFMl5nLrgJvgYRgTX7Td4IroJ4RPj5qxGtZwUEqAvfKL/MQHN6p78wkOYlSloY6getHHlY1oRNcyBQVvqlNvZeNlkhdOOY2coLZcDaF0szILoePvRI0613GQ4ADJdulUcDDmSgeyNSir9Jh0SiQEzj+2joXIf5ZBChkdhAFbot668/mqeicBoSv7yGNQlUR11eR0RPFMWJtLMqMrPtr67tF1sTCQuKTAE9oQNz1ow1BFt57r7EQFp+qtTWwOl9ry/vQ2lXnE2d9bbUQICT0ukLTNBijLpHJqo+Hl9E37zkybXzhRD7ANw5d9jKpvYtk1GBXizJZEjoN/bgC2gIcM0DHrjepuIAfBAKsuHQiCCaA0rMBMrPyAgS5eD+47DrBZQQwI6kri/Sk/ooWOQydgInlJKhioRSvFkJxnVJox1bFqx/JRFDFiwIXmQtyaIgnUxo6fg8CQw502mnIBGik5/CxHkFv87EbB9lMVROtvGex468Sk01KLUMceF0mF4hSSKxF4fBUJqUhscoeHEu/5fhkFKqqGrfyVTzYsBQfxvVXLK4gVoz3AO5i0H1/jGcCoKcDTZcpW40ZKoFFIbUHJxvbtY2dbVCSYyRX3AKfqE8kvjQOKVwHgwnoGYCMMSDHXWPG4Sio4OgGVEAvq4EO4toup+9BiuYIeT5AjEsCnWNJLmGk8nYPgOfYn2Uk1eq61AXB+a8ezr/5+u6jp/NvP7376Ov5z//8v3//dv7NV/OHn7344B/Pnnyo1qeE0dAZ+Vg6NGxub1v1DUithIREPE0JiL3I5ZJ2fi5xcDJG+jonB639Tuuw25QlJCHG6qqLmOKmOKNROhyoRciJ5C6a8eYrEXsYlyQ9znEzXckWN7drnJfO8u9TVLF4/uQvz5/8/V5tHbAUXlV3durroC+4A2+Urdo96KubK/taeLNcq2WEF2TQiar5SZw6nl2vWjvV7S2rmpRvL8ngVUKLLG1p6FyaC3qK1FKIKEmB7DhmyrwfYsYTtjoJmYEK4t0/f/Hii49zUjq6mpK3As5J5CImM+OBNH10MjQG/dOT1r4x3B+IPEl5GTll/CXCevbkPGWTZvm05VJqFVWZe6ni4oyHIY2mS5Uipa6QXFkzlrkLmjI2y66lvBXyetc+fbhKQa+knQLS5AkjS0M5jiJl+Lp2PXr32bdPnz19//l/Prl7/MX80Z/m/3ovZ0fPltzvIXXhgGSHSSZDFdNdY4GCzgYyplfWTzJdQhPFdeiYkoAzu7a5Ia9CeohAtyrMyd+oM4HOJS3LsAF9gYJ+5LD9W64Pq32EzDwBHJ060DRpeoVMCKoup+H972e/v/vdV3ePv3zxwd/mH/51/svHz5/84cXnf1Qn6e7jL+8efa4r92Jxl76Ii6nCcoZ86XANccIM0YKN7975tRFQbgByMCJZZb575zcZY8JRiTFSy4DMEkfyLiyJZpWFnpFxJfEhp5eoqD7eEm2pnkjoxkSnxE0nebssTAG8NCTjB51hOWLYoACKfggryQunyuvqaRXVJo+3rFq1prnKG7GEkcMyoT/06cjxjZgh3xEWRHJaL1dIZeV8h91+s9FNRZQT/dDDoUhD9YFiZCjaRIfFozjVMhTgAn5zI188/SyJLbMSy5lyZuo3lIuGJx7UV7845CRQKwpDhXIC/So/iKaAaePHtvv58gEyA2OPFOTMAtt03Gnn+TDOcKG55dmCIPmyQmmWqlYdJp5rFCo9EqFJh8DLPVpCOPTDu0JP1wS2xBSFZz8Mabiy+qScWKwHgBgqiplGPJGRe6rAs5fuVUyIK17yoS5weoW0jX3Mi71Km6l2D9Dv6+rC3hdV7bC+7+lgFrtBJGFJDWSf5kWifN+XeZVsjTAEsCTe8Qo/pcf3zxO4thb0Ri1FKoqLHMyu37oPSMj4A1EJ9JeinCeUc4U6H4h7k/qQ43O7vqkIIGBmrZs5N+Ojy9UfSKjfJRNS8HZnxec7bwRiOZ0qWNYplimitRzhWwCNGQtQFEc/hbahnkOKWFMJC7U00RdPkIxcjnlRx7ZGDvbwyCq7I1wrb3jWdnkH43q5WoX/HbdWs6xN8YCpjUPlIPim4CRmvGHpHy7t/wOMPYzC8RwAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
+        <v>-0.3785388757796309</v>
       </c>
     </row>
     <row r="21">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Consolidated Government Revenue: ytd</Name>
-          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
-          <SeriesId>310918701</SeriesId>
-          <Code>SR4824980</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96CFEDB0-68DF-434A-BDFF-A7C465CDA063}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>